--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/teacher_login_Data.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/teacher_login_Data.xlsx
@@ -28,14 +28,14 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>t_GeethaNanda@smart.com</t>
+    <t>shweta_class3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -83,7 +90,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,7 +399,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +433,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="t_GeethaNanda@smart.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
